--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/应收账款净额.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/应收账款净额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>333.57141</v>
-      </c>
-      <c r="C2" t="n">
-        <v>844.16853</v>
-      </c>
-      <c r="D2" t="n">
-        <v>95.32965</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00043</v>
-      </c>
-      <c r="F2" t="n">
-        <v>21.88244</v>
-      </c>
-      <c r="G2" t="n">
-        <v>601.21623</v>
-      </c>
-      <c r="H2" t="n">
-        <v>64.76405</v>
-      </c>
-      <c r="I2" t="n">
-        <v>312.15655</v>
-      </c>
-      <c r="J2" t="n">
-        <v>51.12538</v>
-      </c>
-      <c r="K2" t="n">
-        <v>98.48488999999999</v>
-      </c>
-      <c r="L2" t="n">
-        <v>9238.2724</v>
-      </c>
-      <c r="M2" t="n">
-        <v>10.23575</v>
-      </c>
-      <c r="N2" t="n">
-        <v>23.86785</v>
-      </c>
-      <c r="O2" t="n">
-        <v>581.25816</v>
-      </c>
-      <c r="P2" t="n">
-        <v>173.55445</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>18.32775</v>
-      </c>
-      <c r="R2" t="n">
-        <v>66.63366000000001</v>
-      </c>
-      <c r="S2" t="n">
-        <v>21.29358</v>
-      </c>
-      <c r="T2" t="n">
-        <v>24.15323</v>
-      </c>
-      <c r="U2" t="n">
-        <v>117.63223</v>
-      </c>
-      <c r="V2" t="n">
-        <v>139.72074</v>
-      </c>
-      <c r="W2" t="n">
-        <v>34.2044</v>
-      </c>
-      <c r="X2" t="n">
-        <v>444.38313</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>983.47154</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1055.36695</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>556.7703</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>49.64496</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>240.48662</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>192.61507</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>282.41981</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>41.47387</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>152.53954</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>149.46422</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>357.45542</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>56.19471</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>90.72678000000001</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>132.55071</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>158.15889</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>571.4022</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>23.28285</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>309.15266</v>
-      </c>
-      <c r="C3" t="n">
-        <v>833.7955899999999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>116.52339</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.07217999999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>30.88527</v>
-      </c>
-      <c r="G3" t="n">
-        <v>530.16604</v>
-      </c>
-      <c r="H3" t="n">
-        <v>60.39698</v>
-      </c>
-      <c r="I3" t="n">
-        <v>337.76609</v>
-      </c>
-      <c r="J3" t="n">
-        <v>57.19926</v>
-      </c>
-      <c r="K3" t="n">
-        <v>114.3353</v>
-      </c>
-      <c r="L3" t="n">
-        <v>9499.84921</v>
-      </c>
-      <c r="M3" t="n">
-        <v>15.11951</v>
-      </c>
-      <c r="N3" t="n">
-        <v>26.84747</v>
-      </c>
-      <c r="O3" t="n">
-        <v>585.8939800000001</v>
-      </c>
-      <c r="P3" t="n">
-        <v>174.5866</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>19.24965</v>
-      </c>
-      <c r="R3" t="n">
-        <v>79.06137</v>
-      </c>
-      <c r="S3" t="n">
-        <v>23.41479</v>
-      </c>
-      <c r="T3" t="n">
-        <v>20.70087</v>
-      </c>
-      <c r="U3" t="n">
-        <v>115.07294</v>
-      </c>
-      <c r="V3" t="n">
-        <v>184.01589</v>
-      </c>
-      <c r="W3" t="n">
-        <v>31.07656</v>
-      </c>
-      <c r="X3" t="n">
-        <v>381.93054</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1080.19919</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1416.42619</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>631.60177</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>61.34781</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>148.28209</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>87.60460999999999</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>279.63586</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>44.93707</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>171.02513</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>155.50945</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>363.67614</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>54.53884</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>96.71893</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>121.46508</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>154.54294</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>505.83647</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>21.29997</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>311.67498</v>
-      </c>
-      <c r="C4" t="n">
-        <v>803.36769</v>
-      </c>
-      <c r="D4" t="n">
-        <v>139.8984</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.07121</v>
-      </c>
-      <c r="F4" t="n">
-        <v>34.20701</v>
-      </c>
-      <c r="G4" t="n">
-        <v>528.88341</v>
-      </c>
-      <c r="H4" t="n">
-        <v>53.7499</v>
-      </c>
-      <c r="I4" t="n">
-        <v>365.13137</v>
-      </c>
-      <c r="J4" t="n">
-        <v>60.79737</v>
-      </c>
-      <c r="K4" t="n">
-        <v>136.23314</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9757.637629999999</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12.59025</v>
-      </c>
-      <c r="N4" t="n">
-        <v>28.10524</v>
-      </c>
-      <c r="O4" t="n">
-        <v>599.93729</v>
-      </c>
-      <c r="P4" t="n">
-        <v>161.51471</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>16.35355</v>
-      </c>
-      <c r="R4" t="n">
-        <v>79.47880000000001</v>
-      </c>
-      <c r="S4" t="n">
-        <v>26.60213</v>
-      </c>
-      <c r="T4" t="n">
-        <v>20.16005</v>
-      </c>
-      <c r="U4" t="n">
-        <v>108.31006</v>
-      </c>
-      <c r="V4" t="n">
-        <v>142.90507</v>
-      </c>
-      <c r="W4" t="n">
-        <v>28.61632</v>
-      </c>
-      <c r="X4" t="n">
-        <v>343.50202</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1171.16514</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1575.69359</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>674.10013</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>71.96162</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>122.75913</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>69.87497</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>300.34787</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>47.91782</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>182.47064</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>188.65127</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>386.85922</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>49.67763</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>115.26726</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>138.62602</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>154.46941</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>434.06104</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>19.97874</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
